--- a/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
+++ b/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aleatórios Distintos" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>Aleatório Distintos</t>
   </si>
@@ -71,6 +71,129 @@
   </si>
   <si>
     <t>Decrescentes Repetidos</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>43.33</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>65.67</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>82.33</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>103.67</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>11.33</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>18.67</t>
+  </si>
+  <si>
+    <t>26.33</t>
+  </si>
+  <si>
+    <t>29.67</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>6.83</t>
+  </si>
+  <si>
+    <t>14.17</t>
+  </si>
+  <si>
+    <t>14.83</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>28.33</t>
+  </si>
+  <si>
+    <t>28.17</t>
+  </si>
+  <si>
+    <t>33.67</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>99.67</t>
+  </si>
+  <si>
+    <t>49.17</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>4.67</t>
+  </si>
+  <si>
+    <t>10.33</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>24.67</t>
+  </si>
+  <si>
+    <t>25.33</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>31.33</t>
   </si>
 </sst>
 </file>
@@ -284,15 +407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,6 +458,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2462,6 +2585,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1030005263"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3402,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3418,26 +3542,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3495,25 +3619,25 @@
       <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>33201.67</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>1291.67</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>5792.33</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>20.67</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>16</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>21</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -3522,30 +3646,26 @@
         <f>(A5+60000)</f>
         <v>160000</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>62715</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>3656.67</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>10897</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>26</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>15.67</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>26</v>
       </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>LARGE(B4:H16,1)</f>
-        <v>1201261</v>
+      <c r="H6" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -3553,25 +3673,25 @@
         <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
         <v>220000</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>118385.33</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>6985</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>20010.669999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>41.67</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>31</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>47</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -3580,25 +3700,25 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>191690.33</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>11419</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>32675.67</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>52.33</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>36.67</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>57.33</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>10.33</v>
       </c>
     </row>
@@ -3607,130 +3727,130 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>282545.33</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>17199.669999999998</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>48145.67</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>62.33</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>41.33</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>67.67</v>
       </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>391595.67</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>23320.33</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>66663</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>78</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>62.67</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>78</v>
       </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>517183.33</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>31367</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>87947.67</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>88.33</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>62.33</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>94</v>
       </c>
-      <c r="H11" s="20">
-        <v>0</v>
-      </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>520000</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>659194</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>40171</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>112865.33</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>93.67</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>73</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>109</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>10.67</v>
       </c>
       <c r="S12" s="9"/>
@@ -3747,185 +3867,185 @@
         <f t="shared" si="0"/>
         <v>580000</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>822865</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>49656.33</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>139525</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>104</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>78</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>125</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>15</v>
       </c>
-      <c r="S13" s="19"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>1002575</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>60709</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>170496.67</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>119.67</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <v>83.33</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>130</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>15.33</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>1201261</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>73111.67</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>204268.33</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>130.33000000000001</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>104.33</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>172</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>15.33</v>
       </c>
-      <c r="S15" s="19"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="S16" s="19"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S17" s="19"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
     </row>
     <row r="18" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S18" s="19"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S19" s="19"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S20" s="19"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
     </row>
     <row r="21" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S21" s="19"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S22" s="19"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
     </row>
     <row r="23" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S23" s="19"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3942,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,26 +4072,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4029,25 +4149,25 @@
       <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>24497.67</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>1406.33</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>4125.33</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>15.33</v>
       </c>
-      <c r="F5" s="15">
-        <v>5.33</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12">
         <v>21.33</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4056,25 +4176,25 @@
         <f>(A5+60000)</f>
         <v>160000</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>62558</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>3635.67</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>10742</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>31</v>
       </c>
-      <c r="F6" s="15">
-        <v>21</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12">
         <v>31.33</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4083,25 +4203,25 @@
         <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
         <v>220000</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>118549.33</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>7006</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>20325.330000000002</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>36.67</v>
       </c>
-      <c r="F7" s="15">
-        <v>31</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12">
         <v>47</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4110,25 +4230,25 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>191932</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>11454.33</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>32878.33</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>51.67</v>
       </c>
-      <c r="F8" s="15">
-        <v>36.33</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="12">
         <v>52.33</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -4137,25 +4257,25 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>282719.67</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>17231.330000000002</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>48515.67</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>62</v>
       </c>
-      <c r="F9" s="15">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15">
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="12">
         <v>68.33</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4164,25 +4284,25 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>391396.67</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>23410</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>66970</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>62.67</v>
       </c>
-      <c r="F10" s="15">
-        <v>57.33</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="F10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="12">
         <v>88.67</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4191,25 +4311,25 @@
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>517556.33</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>31415.33</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>87890.33</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>88.67</v>
       </c>
-      <c r="F11" s="15">
-        <v>62.33</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12">
         <v>93.67</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>5</v>
       </c>
     </row>
@@ -4218,25 +4338,25 @@
         <f t="shared" si="0"/>
         <v>520000</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>661733.32999999996</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>40275.33</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>112762.33</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>99</v>
       </c>
-      <c r="F12" s="15">
-        <v>67.67</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="12">
         <v>109</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>10.33</v>
       </c>
     </row>
@@ -4245,25 +4365,25 @@
         <f t="shared" si="0"/>
         <v>580000</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>821844.33</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>49890.67</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>140291.32999999999</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>109.33</v>
       </c>
-      <c r="F13" s="15">
-        <v>78</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="F13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="12">
         <v>125</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>5</v>
       </c>
     </row>
@@ -4272,25 +4392,25 @@
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>1001722.33</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>61090</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>171341</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>120</v>
       </c>
-      <c r="F14" s="15">
-        <v>88.33</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="F14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="12">
         <v>135.33000000000001</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>10.67</v>
       </c>
     </row>
@@ -4299,25 +4419,25 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>1199776.33</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>73060.33</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>203748.67</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>141</v>
       </c>
-      <c r="F15" s="21">
-        <v>88.67</v>
-      </c>
-      <c r="G15" s="21">
+      <c r="F15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="18">
         <v>156.33000000000001</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>15.67</v>
       </c>
     </row>
@@ -4335,7 +4455,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H15"/>
+      <selection activeCell="F5" sqref="F5:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,50 +4464,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4395,25 +4515,25 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
         <v>0</v>
       </c>
     </row>
@@ -4421,23 +4541,25 @@
       <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>6954</v>
       </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
         <v>4119.67</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>5.33</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30">
+      <c r="F5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="27">
         <v>10.33</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4446,23 +4568,25 @@
         <f>(A5+60000)</f>
         <v>160000</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>17944.669999999998</v>
       </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
         <v>10590</v>
       </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30">
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="27">
         <v>15.33</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="29">
         <v>5.33</v>
       </c>
     </row>
@@ -4471,23 +4595,25 @@
         <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
         <v>220000</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>33795.33</v>
       </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
         <v>20236.330000000002</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <v>16</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30">
+      <c r="F7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="27">
         <v>31</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="29">
         <v>5.33</v>
       </c>
     </row>
@@ -4496,23 +4622,25 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>55115</v>
       </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
         <v>32248</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>15.33</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
+      <c r="F8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="27">
         <v>41.67</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4521,23 +4649,25 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="26">
         <v>80971.67</v>
       </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
         <v>48428.33</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <v>31.33</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30">
+      <c r="F9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="27">
         <v>41.67</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4546,23 +4676,25 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <v>109939.67</v>
       </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
         <v>66315.33</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="27">
         <v>31</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
+      <c r="F10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="27">
         <v>47</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4571,23 +4703,25 @@
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <v>147098</v>
       </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
         <v>88567.33</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <v>36.33</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30">
+      <c r="F11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="27">
         <v>57</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4596,23 +4730,25 @@
         <f t="shared" si="0"/>
         <v>520000</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>187221.33</v>
       </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27">
         <v>112088.67</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <v>36.67</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30">
+      <c r="F12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="27">
         <v>62.33</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4621,23 +4757,25 @@
         <f t="shared" si="0"/>
         <v>580000</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="26">
         <v>229716</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="27">
         <v>5.33</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>140063.32999999999</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <v>36.33</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30">
+      <c r="F13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="27">
         <v>67.67</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4646,23 +4784,25 @@
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>279374</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27">
         <v>5.33</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>170454.67</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <v>47</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30">
+      <c r="F14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="27">
         <v>72.67</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="29">
         <v>10.33</v>
       </c>
     </row>
@@ -4671,23 +4811,25 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>334427.67</v>
       </c>
-      <c r="C15" s="33">
-        <v>0</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
         <v>203676.67</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="30">
         <v>52</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33">
+      <c r="F15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="30">
         <v>78</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="31">
         <v>10.33</v>
       </c>
     </row>
@@ -4706,7 +4848,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H15"/>
+      <selection activeCell="F5" sqref="F5:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4715,26 +4857,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4792,23 +4934,25 @@
       <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>6943</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>5.33</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>4114.33</v>
       </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="12">
         <v>10.33</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -4817,23 +4961,25 @@
         <f>(A5+60000)</f>
         <v>160000</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>18293.669999999998</v>
       </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
         <v>10589.67</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>10</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12">
         <v>20.67</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4842,23 +4988,25 @@
         <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
         <v>220000</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>33925.33</v>
       </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
         <v>20554.330000000002</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>15.67</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="F7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="12">
         <v>25.67</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>5</v>
       </c>
     </row>
@@ -4867,23 +5015,25 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>54927</v>
       </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
         <v>32226.33</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>21</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="F8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="12">
         <v>42</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -4892,23 +5042,25 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>81727.33</v>
       </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
         <v>48432.67</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>20.67</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="F9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="12">
         <v>41.67</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -4917,23 +5069,25 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>110230.67</v>
       </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
         <v>66423.33</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>36.33</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="F10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="12">
         <v>47</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -4942,23 +5096,25 @@
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>144234.32999999999</v>
       </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
         <v>88348.67</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>36.33</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12">
         <v>57.67</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4967,23 +5123,25 @@
         <f t="shared" si="0"/>
         <v>520000</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>184253.67</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>10.33</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>112455</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>41.67</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12">
         <v>67.33</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -4992,23 +5150,25 @@
         <f t="shared" si="0"/>
         <v>580000</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>231609</v>
       </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
         <v>140322.67000000001</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>46.67</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="12">
         <v>78</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5017,23 +5177,25 @@
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>279567</v>
       </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
         <v>170804.67</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>52</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15">
+      <c r="F14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12">
         <v>78</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -5042,23 +5204,25 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>333419</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>5.33</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>203917.67</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>57.33</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21">
+      <c r="F15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="18">
         <v>93.67</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>5</v>
       </c>
     </row>
@@ -5076,7 +5240,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H15"/>
+      <selection activeCell="F5" sqref="F5:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5085,26 +5249,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5162,23 +5326,25 @@
       <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>12277.33</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>2844</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>5594.33</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>5.33</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
+      <c r="F5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="12">
         <v>10.33</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -5187,23 +5353,25 @@
         <f>(A5+60000)</f>
         <v>160000</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>32576</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>7505.67</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>14574.33</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>10</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="F6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="12">
         <v>25.67</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5212,23 +5380,25 @@
         <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
         <v>220000</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>60585.33</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>14142</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>27706</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>16</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="F7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="12">
         <v>26.33</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5237,23 +5407,25 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>96863</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>23476.33</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>44316.33</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>21</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="12">
         <v>31</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5262,23 +5434,25 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>144229.67000000001</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>34310.67</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>64914.67</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>26</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="F9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12">
         <v>41.33</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5287,23 +5461,25 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>199129.33</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>47526.33</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>90814.67</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>15.67</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="F10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="12">
         <v>46.67</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -5312,23 +5488,25 @@
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>262138.33</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>63283</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>120128.33</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>36.67</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="12">
         <v>52</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>5</v>
       </c>
     </row>
@@ -5337,23 +5515,25 @@
         <f t="shared" si="0"/>
         <v>520000</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>338122</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>81138.67</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>152823</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>36.67</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="F12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="12">
         <v>62</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -5362,23 +5542,25 @@
         <f t="shared" si="0"/>
         <v>580000</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>419936.67</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>101760.33</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>188596.33</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>36.33</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+      <c r="F13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="12">
         <v>73</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5387,23 +5569,25 @@
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>502973.67</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>123199.67</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>228362.67</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>41.67</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15">
+      <c r="F14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="12">
         <v>78</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5412,23 +5596,25 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>610071.67000000004</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>147108.67000000001</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>271704.67</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>46.67</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21">
+      <c r="F15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="18">
         <v>88.67</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>5.33</v>
       </c>
     </row>
@@ -5455,26 +5641,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5532,23 +5718,23 @@
       <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>12470.33</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>2839</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>16679</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>5.33</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>20.329999999999998</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5557,23 +5743,23 @@
         <f>(A5+60000)</f>
         <v>160000</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>31029.67</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>7501</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>46230</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>10.67</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
         <v>15.33</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5582,23 +5768,23 @@
         <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
         <v>220000</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>60023.33</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>14147.33</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>81571.33</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>15.67</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>31.67</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5607,23 +5793,23 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>101923.33</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>23513</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>120288.33</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>21</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
         <v>36.33</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5632,23 +5818,23 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>150274</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>34431.67</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>160780</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>26.33</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>51.67</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5657,23 +5843,23 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>198567</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>47452.33</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>204434</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>25.67</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <v>47</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>0</v>
       </c>
     </row>
@@ -5682,23 +5868,23 @@
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>263865.33</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>63198.67</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>249000.67</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>31.33</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>52.33</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>10.33</v>
       </c>
     </row>
@@ -5707,23 +5893,23 @@
         <f t="shared" si="0"/>
         <v>520000</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>341493.33</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>80550</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>295198</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>31.33</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>57.33</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>10.33</v>
       </c>
     </row>
@@ -5732,23 +5918,23 @@
         <f t="shared" si="0"/>
         <v>580000</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>415190.33</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>100838</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>343810.33</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>47</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>72.67</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>5.33</v>
       </c>
     </row>
@@ -5757,23 +5943,23 @@
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>502986.67</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>122389</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>395997</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>41.67</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>83.33</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>5</v>
       </c>
     </row>
@@ -5782,23 +5968,23 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>604516</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>147876.32999999999</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>449098</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>47</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
         <v>88.67</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>5.33</v>
       </c>
     </row>

--- a/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
+++ b/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Aleatórios Distintos" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Decrescentes Repetidos" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -12619,7 +12618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -14727,7 +14726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>

--- a/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
+++ b/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aleatórios Distintos" sheetId="2" r:id="rId1"/>
@@ -585,7 +585,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1629,7 +1628,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1702,7 +1700,6 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1781,7 +1778,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1854,7 +1850,6 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1895,7 +1890,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4751,7 +4745,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5739,7 +5732,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5812,7 +5804,6 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5891,7 +5882,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5964,7 +5954,6 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6005,7 +5994,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6117,7 +6105,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7105,7 +7092,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7178,7 +7164,6 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7257,7 +7242,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7330,7 +7314,6 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7371,7 +7354,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13548,7 +13530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -14726,8 +14708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
+++ b/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Aleatórios Distintos" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Aleatório Distintos</t>
   </si>
@@ -585,6 +585,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,6 +1629,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1700,6 +1702,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1778,6 +1781,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1850,6 +1854,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1890,6 +1895,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2077,13 +2083,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>[0]!Dados</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -4745,6 +4744,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4784,7 +4784,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>CountingSort</c:v>
+            <c:v>BubbleSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4812,7 +4812,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$H$4:$H$15</c:f>
+              <c:f>'Crescentes Repetidos'!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4820,37 +4820,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.33</c:v>
+                  <c:v>6943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18293.669999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>33925.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.33</c:v>
+                  <c:v>54927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.33</c:v>
+                  <c:v>81727.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.33</c:v>
+                  <c:v>110230.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>144234.32999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33</c:v>
+                  <c:v>184253.67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>231609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.33</c:v>
+                  <c:v>279567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>333419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4903,7 +4903,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000000-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4911,7 +4911,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>HeapSort</c:v>
+            <c:v>InsertionSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4939,7 +4939,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$G$4:$G$15</c:f>
+              <c:f>'Crescentes Repetidos'!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4947,37 +4947,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10.33</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.33</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.67</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,7 +5030,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000001-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5038,7 +5038,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>QuickSort</c:v>
+            <c:v>SelectionSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5065,48 +5065,49 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>'Crescentes Repetidos'!$F$4:$F$15</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Crescentes Repetidos'!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.67</c:v>
+                  <c:v>4114.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>10589.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.33</c:v>
+                  <c:v>20554.330000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
+                  <c:v>32226.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.33</c:v>
+                  <c:v>48432.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.67</c:v>
+                  <c:v>66423.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.67</c:v>
+                  <c:v>88348.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.0</c:v>
+                  <c:v>112455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.33</c:v>
+                  <c:v>140322.67000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.33</c:v>
+                  <c:v>170804.67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>203917.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -5156,7 +5157,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000002-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5164,7 +5165,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>MergSort</c:v>
+            <c:v>MergeSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5283,7 +5284,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000003-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5291,7 +5292,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>SelectionSort</c:v>
+            <c:v>QuickSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5318,49 +5319,48 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Crescentes Repetidos'!$D$4:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'Crescentes Repetidos'!$F$4:$F$15</c:f>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4114.33</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10589.67</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20554.330000000002</c:v>
+                  <c:v>18.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32226.33</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48432.67</c:v>
+                  <c:v>23.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66423.33</c:v>
+                  <c:v>25.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88348.67</c:v>
+                  <c:v>32.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112455</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140322.67000000001</c:v>
+                  <c:v>41.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>170804.67</c:v>
+                  <c:v>41.33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203917.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -5410,7 +5410,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000004-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5418,7 +5418,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>InsertionSort</c:v>
+            <c:v>HeapSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5446,7 +5446,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$C$4:$C$15</c:f>
+              <c:f>'Crescentes Repetidos'!$G$4:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5454,37 +5454,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.33</c:v>
+                  <c:v>10.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>41.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>57.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.33</c:v>
+                  <c:v>67.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.33</c:v>
+                  <c:v>93.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5537,7 +5537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000005-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5545,7 +5545,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>BubbleSort</c:v>
+            <c:v>CountingSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5579,7 +5579,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$B$4:$B$15</c:f>
+              <c:f>'Crescentes Repetidos'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5587,37 +5587,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6943</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18293.669999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33925.33</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54927</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81727.33</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110230.67</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144234.32999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184253.67</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>231609</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>279567</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>333419</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5670,7 +5670,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000006-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5732,6 +5732,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5804,6 +5805,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5882,6 +5884,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5954,6 +5957,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5994,6 +5998,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6105,6 +6110,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7092,6 +7098,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7164,6 +7171,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7242,6 +7250,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7314,6 +7323,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7354,6 +7364,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8776,7 +8787,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -12122,15 +12133,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12157,15 +12168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12193,14 +12204,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12231,13 +12242,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12267,14 +12278,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12303,15 +12314,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12601,11 +12612,17 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -12638,7 +12655,9 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -13134,806 +13153,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>100000</v>
-      </c>
-      <c r="B5" s="11">
-        <v>24497.67</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1406.33</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4125.33</v>
-      </c>
-      <c r="E5" s="12">
-        <v>15.33</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="12">
-        <v>21.33</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f>(A5+60000)</f>
-        <v>160000</v>
-      </c>
-      <c r="B6" s="11">
-        <v>62558</v>
-      </c>
-      <c r="C6" s="12">
-        <v>3635.67</v>
-      </c>
-      <c r="D6" s="12">
-        <v>10742</v>
-      </c>
-      <c r="E6" s="12">
-        <v>31</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="12">
-        <v>31.33</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
-        <v>220000</v>
-      </c>
-      <c r="B7" s="11">
-        <v>118549.33</v>
-      </c>
-      <c r="C7" s="12">
-        <v>7006</v>
-      </c>
-      <c r="D7" s="12">
-        <v>20325.330000000002</v>
-      </c>
-      <c r="E7" s="12">
-        <v>36.67</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="12">
-        <v>47</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>280000</v>
-      </c>
-      <c r="B8" s="11">
-        <v>191932</v>
-      </c>
-      <c r="C8" s="12">
-        <v>11454.33</v>
-      </c>
-      <c r="D8" s="12">
-        <v>32878.33</v>
-      </c>
-      <c r="E8" s="12">
-        <v>51.67</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="12">
-        <v>52.33</v>
-      </c>
-      <c r="H8" s="17">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>340000</v>
-      </c>
-      <c r="B9" s="11">
-        <v>282719.67</v>
-      </c>
-      <c r="C9" s="12">
-        <v>17231.330000000002</v>
-      </c>
-      <c r="D9" s="12">
-        <v>48515.67</v>
-      </c>
-      <c r="E9" s="12">
-        <v>62</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="12">
-        <v>68.33</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="B10" s="11">
-        <v>391396.67</v>
-      </c>
-      <c r="C10" s="12">
-        <v>23410</v>
-      </c>
-      <c r="D10" s="12">
-        <v>66970</v>
-      </c>
-      <c r="E10" s="12">
-        <v>62.67</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="12">
-        <v>88.67</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>460000</v>
-      </c>
-      <c r="B11" s="11">
-        <v>517556.33</v>
-      </c>
-      <c r="C11" s="12">
-        <v>31415.33</v>
-      </c>
-      <c r="D11" s="12">
-        <v>87890.33</v>
-      </c>
-      <c r="E11" s="12">
-        <v>88.67</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="12">
-        <v>93.67</v>
-      </c>
-      <c r="H11" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>520000</v>
-      </c>
-      <c r="B12" s="11">
-        <v>661733.32999999996</v>
-      </c>
-      <c r="C12" s="12">
-        <v>40275.33</v>
-      </c>
-      <c r="D12" s="12">
-        <v>112762.33</v>
-      </c>
-      <c r="E12" s="12">
-        <v>99</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="12">
-        <v>109</v>
-      </c>
-      <c r="H12" s="17">
-        <v>10.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>580000</v>
-      </c>
-      <c r="B13" s="11">
-        <v>821844.33</v>
-      </c>
-      <c r="C13" s="12">
-        <v>49890.67</v>
-      </c>
-      <c r="D13" s="12">
-        <v>140291.32999999999</v>
-      </c>
-      <c r="E13" s="12">
-        <v>109.33</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12">
-        <v>125</v>
-      </c>
-      <c r="H13" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>640000</v>
-      </c>
-      <c r="B14" s="11">
-        <v>1001722.33</v>
-      </c>
-      <c r="C14" s="12">
-        <v>61090</v>
-      </c>
-      <c r="D14" s="12">
-        <v>171341</v>
-      </c>
-      <c r="E14" s="12">
-        <v>120</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="12">
-        <v>135.33000000000001</v>
-      </c>
-      <c r="H14" s="17">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>700000</v>
-      </c>
-      <c r="B15" s="13">
-        <v>1199776.33</v>
-      </c>
-      <c r="C15" s="18">
-        <v>73060.33</v>
-      </c>
-      <c r="D15" s="18">
-        <v>203748.67</v>
-      </c>
-      <c r="E15" s="18">
-        <v>141</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="18">
-        <v>156.33000000000001</v>
-      </c>
-      <c r="H15" s="19">
-        <v>15.67</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>100000</v>
-      </c>
-      <c r="B5" s="26">
-        <v>6954</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>4119.67</v>
-      </c>
-      <c r="E5" s="27">
-        <v>5.33</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="27">
-        <v>10.33</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f>(A5+60000)</f>
-        <v>160000</v>
-      </c>
-      <c r="B6" s="26">
-        <v>17944.669999999998</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>10590</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="27">
-        <v>15.33</v>
-      </c>
-      <c r="H6" s="29">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
-        <v>220000</v>
-      </c>
-      <c r="B7" s="26">
-        <v>33795.33</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>20236.330000000002</v>
-      </c>
-      <c r="E7" s="27">
-        <v>16</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="27">
-        <v>31</v>
-      </c>
-      <c r="H7" s="29">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>280000</v>
-      </c>
-      <c r="B8" s="26">
-        <v>55115</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>32248</v>
-      </c>
-      <c r="E8" s="27">
-        <v>15.33</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="27">
-        <v>41.67</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>340000</v>
-      </c>
-      <c r="B9" s="26">
-        <v>80971.67</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>48428.33</v>
-      </c>
-      <c r="E9" s="27">
-        <v>31.33</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="27">
-        <v>41.67</v>
-      </c>
-      <c r="H9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="B10" s="26">
-        <v>109939.67</v>
-      </c>
-      <c r="C10" s="27">
-        <v>0</v>
-      </c>
-      <c r="D10" s="27">
-        <v>66315.33</v>
-      </c>
-      <c r="E10" s="27">
-        <v>31</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="27">
-        <v>47</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>460000</v>
-      </c>
-      <c r="B11" s="26">
-        <v>147098</v>
-      </c>
-      <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27">
-        <v>88567.33</v>
-      </c>
-      <c r="E11" s="27">
-        <v>36.33</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="27">
-        <v>57</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>520000</v>
-      </c>
-      <c r="B12" s="26">
-        <v>187221.33</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
-        <v>112088.67</v>
-      </c>
-      <c r="E12" s="27">
-        <v>36.67</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="27">
-        <v>62.33</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>580000</v>
-      </c>
-      <c r="B13" s="26">
-        <v>229716</v>
-      </c>
-      <c r="C13" s="27">
-        <v>5.33</v>
-      </c>
-      <c r="D13" s="27">
-        <v>140063.32999999999</v>
-      </c>
-      <c r="E13" s="27">
-        <v>36.33</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="27">
-        <v>67.67</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>640000</v>
-      </c>
-      <c r="B14" s="26">
-        <v>279374</v>
-      </c>
-      <c r="C14" s="27">
-        <v>5.33</v>
-      </c>
-      <c r="D14" s="27">
-        <v>170454.67</v>
-      </c>
-      <c r="E14" s="27">
-        <v>47</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="27">
-        <v>72.67</v>
-      </c>
-      <c r="H14" s="29">
-        <v>10.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>700000</v>
-      </c>
-      <c r="B15" s="28">
-        <v>334427.67</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="30">
-        <v>203676.67</v>
-      </c>
-      <c r="E15" s="30">
-        <v>52</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="30">
-        <v>78</v>
-      </c>
-      <c r="H15" s="31">
-        <v>10.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>72</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -14010,25 +13249,25 @@
         <v>100000</v>
       </c>
       <c r="B5" s="11">
-        <v>6943</v>
+        <v>24497.67</v>
       </c>
       <c r="C5" s="12">
-        <v>5.33</v>
+        <v>1406.33</v>
       </c>
       <c r="D5" s="12">
-        <v>4114.33</v>
+        <v>4125.33</v>
       </c>
       <c r="E5" s="12">
+        <v>15.33</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="12">
+        <v>21.33</v>
+      </c>
+      <c r="H5" s="17">
         <v>0</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12">
-        <v>10.33</v>
-      </c>
-      <c r="H5" s="17">
-        <v>5.33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14037,22 +13276,22 @@
         <v>160000</v>
       </c>
       <c r="B6" s="11">
-        <v>18293.669999999998</v>
+        <v>62558</v>
       </c>
       <c r="C6" s="12">
-        <v>0</v>
+        <v>3635.67</v>
       </c>
       <c r="D6" s="12">
-        <v>10589.67</v>
+        <v>10742</v>
       </c>
       <c r="E6" s="12">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G6" s="12">
-        <v>20.67</v>
+        <v>31.33</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -14064,25 +13303,25 @@
         <v>220000</v>
       </c>
       <c r="B7" s="11">
-        <v>33925.33</v>
+        <v>118549.33</v>
       </c>
       <c r="C7" s="12">
+        <v>7006</v>
+      </c>
+      <c r="D7" s="12">
+        <v>20325.330000000002</v>
+      </c>
+      <c r="E7" s="12">
+        <v>36.67</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12">
+        <v>47</v>
+      </c>
+      <c r="H7" s="17">
         <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>20554.330000000002</v>
-      </c>
-      <c r="E7" s="12">
-        <v>15.67</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="12">
-        <v>25.67</v>
-      </c>
-      <c r="H7" s="17">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -14091,22 +13330,22 @@
         <v>280000</v>
       </c>
       <c r="B8" s="11">
-        <v>54927</v>
+        <v>191932</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>11454.33</v>
       </c>
       <c r="D8" s="12">
-        <v>32226.33</v>
+        <v>32878.33</v>
       </c>
       <c r="E8" s="12">
-        <v>21</v>
+        <v>51.67</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G8" s="12">
-        <v>42</v>
+        <v>52.33</v>
       </c>
       <c r="H8" s="17">
         <v>5.33</v>
@@ -14118,25 +13357,25 @@
         <v>340000</v>
       </c>
       <c r="B9" s="11">
-        <v>81727.33</v>
+        <v>282719.67</v>
       </c>
       <c r="C9" s="12">
+        <v>17231.330000000002</v>
+      </c>
+      <c r="D9" s="12">
+        <v>48515.67</v>
+      </c>
+      <c r="E9" s="12">
+        <v>62</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12">
+        <v>68.33</v>
+      </c>
+      <c r="H9" s="17">
         <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>48432.67</v>
-      </c>
-      <c r="E9" s="12">
-        <v>20.67</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="12">
-        <v>41.67</v>
-      </c>
-      <c r="H9" s="17">
-        <v>5.33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14145,25 +13384,25 @@
         <v>400000</v>
       </c>
       <c r="B10" s="11">
-        <v>110230.67</v>
+        <v>391396.67</v>
       </c>
       <c r="C10" s="12">
+        <v>23410</v>
+      </c>
+      <c r="D10" s="12">
+        <v>66970</v>
+      </c>
+      <c r="E10" s="12">
+        <v>62.67</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="12">
+        <v>88.67</v>
+      </c>
+      <c r="H10" s="17">
         <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>66423.33</v>
-      </c>
-      <c r="E10" s="12">
-        <v>36.33</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="12">
-        <v>47</v>
-      </c>
-      <c r="H10" s="17">
-        <v>5.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14172,25 +13411,25 @@
         <v>460000</v>
       </c>
       <c r="B11" s="11">
-        <v>144234.32999999999</v>
+        <v>517556.33</v>
       </c>
       <c r="C11" s="12">
-        <v>0</v>
+        <v>31415.33</v>
       </c>
       <c r="D11" s="12">
-        <v>88348.67</v>
+        <v>87890.33</v>
       </c>
       <c r="E11" s="12">
-        <v>36.33</v>
+        <v>88.67</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G11" s="12">
-        <v>57.67</v>
+        <v>93.67</v>
       </c>
       <c r="H11" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14199,25 +13438,25 @@
         <v>520000</v>
       </c>
       <c r="B12" s="11">
-        <v>184253.67</v>
+        <v>661733.32999999996</v>
       </c>
       <c r="C12" s="12">
+        <v>40275.33</v>
+      </c>
+      <c r="D12" s="12">
+        <v>112762.33</v>
+      </c>
+      <c r="E12" s="12">
+        <v>99</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12">
+        <v>109</v>
+      </c>
+      <c r="H12" s="17">
         <v>10.33</v>
-      </c>
-      <c r="D12" s="12">
-        <v>112455</v>
-      </c>
-      <c r="E12" s="12">
-        <v>41.67</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12">
-        <v>67.33</v>
-      </c>
-      <c r="H12" s="17">
-        <v>5.33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14226,25 +13465,25 @@
         <v>580000</v>
       </c>
       <c r="B13" s="11">
-        <v>231609</v>
+        <v>821844.33</v>
       </c>
       <c r="C13" s="12">
-        <v>0</v>
+        <v>49890.67</v>
       </c>
       <c r="D13" s="12">
-        <v>140322.67000000001</v>
+        <v>140291.32999999999</v>
       </c>
       <c r="E13" s="12">
-        <v>46.67</v>
+        <v>109.33</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G13" s="12">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H13" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -14253,25 +13492,25 @@
         <v>640000</v>
       </c>
       <c r="B14" s="11">
-        <v>279567</v>
+        <v>1001722.33</v>
       </c>
       <c r="C14" s="12">
-        <v>0</v>
+        <v>61090</v>
       </c>
       <c r="D14" s="12">
-        <v>170804.67</v>
+        <v>171341</v>
       </c>
       <c r="E14" s="12">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G14" s="12">
-        <v>78</v>
+        <v>135.33000000000001</v>
       </c>
       <c r="H14" s="17">
-        <v>5.33</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14280,25 +13519,25 @@
         <v>700000</v>
       </c>
       <c r="B15" s="13">
-        <v>333419</v>
+        <v>1199776.33</v>
       </c>
       <c r="C15" s="18">
-        <v>5.33</v>
+        <v>73060.33</v>
       </c>
       <c r="D15" s="18">
-        <v>203917.67</v>
+        <v>203748.67</v>
       </c>
       <c r="E15" s="18">
-        <v>57.33</v>
+        <v>141</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G15" s="18">
-        <v>93.67</v>
+        <v>156.33000000000001</v>
       </c>
       <c r="H15" s="19">
-        <v>5</v>
+        <v>15.67</v>
       </c>
     </row>
   </sheetData>
@@ -14307,26 +13546,33 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -14350,25 +13596,25 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14376,25 +13622,25 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="23">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="24">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="24">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="24">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="24">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="24">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="25">
         <v>0</v>
       </c>
     </row>
@@ -14402,26 +13648,26 @@
       <c r="A5" s="6">
         <v>100000</v>
       </c>
-      <c r="B5" s="11">
-        <v>12277.33</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2844</v>
-      </c>
-      <c r="D5" s="12">
-        <v>5594.33</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="B5" s="26">
+        <v>6954</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>4119.67</v>
+      </c>
+      <c r="E5" s="27">
         <v>5.33</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="27">
         <v>10.33</v>
       </c>
-      <c r="H5" s="17">
-        <v>5.33</v>
+      <c r="H5" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14429,26 +13675,26 @@
         <f>(A5+60000)</f>
         <v>160000</v>
       </c>
-      <c r="B6" s="11">
-        <v>32576</v>
-      </c>
-      <c r="C6" s="12">
-        <v>7505.67</v>
-      </c>
-      <c r="D6" s="12">
-        <v>14574.33</v>
-      </c>
-      <c r="E6" s="12">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="12">
-        <v>25.67</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="B6" s="26">
+        <v>17944.669999999998</v>
+      </c>
+      <c r="C6" s="27">
         <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>10590</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="27">
+        <v>15.33</v>
+      </c>
+      <c r="H6" s="29">
+        <v>5.33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -14456,26 +13702,26 @@
         <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
         <v>220000</v>
       </c>
-      <c r="B7" s="11">
-        <v>60585.33</v>
-      </c>
-      <c r="C7" s="12">
-        <v>14142</v>
-      </c>
-      <c r="D7" s="12">
-        <v>27706</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="B7" s="26">
+        <v>33795.33</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>20236.330000000002</v>
+      </c>
+      <c r="E7" s="27">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="12">
-        <v>26.33</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
+      <c r="F7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="27">
+        <v>31</v>
+      </c>
+      <c r="H7" s="29">
+        <v>5.33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -14483,25 +13729,25 @@
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
-      <c r="B8" s="11">
-        <v>96863</v>
-      </c>
-      <c r="C8" s="12">
-        <v>23476.33</v>
-      </c>
-      <c r="D8" s="12">
-        <v>44316.33</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="B8" s="26">
+        <v>55115</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>32248</v>
+      </c>
+      <c r="E8" s="27">
+        <v>15.33</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="12">
-        <v>31</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="27">
+        <v>41.67</v>
+      </c>
+      <c r="H8" s="29">
         <v>0</v>
       </c>
     </row>
@@ -14510,25 +13756,25 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-      <c r="B9" s="11">
-        <v>144229.67000000001</v>
-      </c>
-      <c r="C9" s="12">
-        <v>34310.67</v>
-      </c>
-      <c r="D9" s="12">
-        <v>64914.67</v>
-      </c>
-      <c r="E9" s="12">
-        <v>26</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="12">
-        <v>41.33</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="B9" s="26">
+        <v>80971.67</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>48428.33</v>
+      </c>
+      <c r="E9" s="27">
+        <v>31.33</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="27">
+        <v>41.67</v>
+      </c>
+      <c r="H9" s="29">
         <v>0</v>
       </c>
     </row>
@@ -14537,26 +13783,26 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="B10" s="11">
-        <v>199129.33</v>
-      </c>
-      <c r="C10" s="12">
-        <v>47526.33</v>
-      </c>
-      <c r="D10" s="12">
-        <v>90814.67</v>
-      </c>
-      <c r="E10" s="12">
-        <v>15.67</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="12">
-        <v>46.67</v>
-      </c>
-      <c r="H10" s="17">
-        <v>5.33</v>
+      <c r="B10" s="26">
+        <v>109939.67</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>66315.33</v>
+      </c>
+      <c r="E10" s="27">
+        <v>31</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="27">
+        <v>47</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14564,26 +13810,26 @@
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="B11" s="11">
-        <v>262138.33</v>
-      </c>
-      <c r="C11" s="12">
-        <v>63283</v>
-      </c>
-      <c r="D11" s="12">
-        <v>120128.33</v>
-      </c>
-      <c r="E11" s="12">
-        <v>36.67</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="12">
-        <v>52</v>
-      </c>
-      <c r="H11" s="17">
-        <v>5</v>
+      <c r="B11" s="26">
+        <v>147098</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <v>88567.33</v>
+      </c>
+      <c r="E11" s="27">
+        <v>36.33</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="27">
+        <v>57</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14591,26 +13837,26 @@
         <f t="shared" si="0"/>
         <v>520000</v>
       </c>
-      <c r="B12" s="11">
-        <v>338122</v>
-      </c>
-      <c r="C12" s="12">
-        <v>81138.67</v>
-      </c>
-      <c r="D12" s="12">
-        <v>152823</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="B12" s="26">
+        <v>187221.33</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27">
+        <v>112088.67</v>
+      </c>
+      <c r="E12" s="27">
         <v>36.67</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="12">
-        <v>62</v>
-      </c>
-      <c r="H12" s="17">
-        <v>5.33</v>
+      <c r="F12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="27">
+        <v>62.33</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14618,25 +13864,25 @@
         <f t="shared" si="0"/>
         <v>580000</v>
       </c>
-      <c r="B13" s="11">
-        <v>419936.67</v>
-      </c>
-      <c r="C13" s="12">
-        <v>101760.33</v>
-      </c>
-      <c r="D13" s="12">
-        <v>188596.33</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="B13" s="26">
+        <v>229716</v>
+      </c>
+      <c r="C13" s="27">
+        <v>5.33</v>
+      </c>
+      <c r="D13" s="27">
+        <v>140063.32999999999</v>
+      </c>
+      <c r="E13" s="27">
         <v>36.33</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="12">
-        <v>73</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="F13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="27">
+        <v>67.67</v>
+      </c>
+      <c r="H13" s="29">
         <v>0</v>
       </c>
     </row>
@@ -14645,26 +13891,26 @@
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-      <c r="B14" s="11">
-        <v>502973.67</v>
-      </c>
-      <c r="C14" s="12">
-        <v>123199.67</v>
-      </c>
-      <c r="D14" s="12">
-        <v>228362.67</v>
-      </c>
-      <c r="E14" s="12">
-        <v>41.67</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="12">
-        <v>78</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
+      <c r="B14" s="26">
+        <v>279374</v>
+      </c>
+      <c r="C14" s="27">
+        <v>5.33</v>
+      </c>
+      <c r="D14" s="27">
+        <v>170454.67</v>
+      </c>
+      <c r="E14" s="27">
+        <v>47</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="27">
+        <v>72.67</v>
+      </c>
+      <c r="H14" s="29">
+        <v>10.33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14672,26 +13918,26 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="B15" s="13">
-        <v>610071.67000000004</v>
-      </c>
-      <c r="C15" s="18">
-        <v>147108.67000000001</v>
-      </c>
-      <c r="D15" s="18">
-        <v>271704.67</v>
-      </c>
-      <c r="E15" s="18">
-        <v>46.67</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="18">
-        <v>88.67</v>
-      </c>
-      <c r="H15" s="19">
-        <v>5.33</v>
+      <c r="B15" s="28">
+        <v>334427.67</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>203676.67</v>
+      </c>
+      <c r="E15" s="30">
+        <v>52</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="30">
+        <v>78</v>
+      </c>
+      <c r="H15" s="31">
+        <v>10.33</v>
       </c>
     </row>
   </sheetData>
@@ -14700,26 +13946,33 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -14796,25 +14049,25 @@
         <v>100000</v>
       </c>
       <c r="B5" s="11">
-        <v>12470.33</v>
+        <v>6943</v>
       </c>
       <c r="C5" s="12">
-        <v>2839</v>
+        <v>5.33</v>
       </c>
       <c r="D5" s="12">
-        <v>16679</v>
+        <v>4114.33</v>
       </c>
       <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12">
+        <v>10.33</v>
+      </c>
+      <c r="H5" s="17">
         <v>5.33</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="12">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14823,22 +14076,22 @@
         <v>160000</v>
       </c>
       <c r="B6" s="11">
-        <v>31029.67</v>
+        <v>18293.669999999998</v>
       </c>
       <c r="C6" s="12">
-        <v>7501</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
-        <v>46230</v>
+        <v>10589.67</v>
       </c>
       <c r="E6" s="12">
-        <v>10.67</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G6" s="12">
-        <v>15.33</v>
+        <v>20.67</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -14850,25 +14103,25 @@
         <v>220000</v>
       </c>
       <c r="B7" s="11">
-        <v>60023.33</v>
+        <v>33925.33</v>
       </c>
       <c r="C7" s="12">
-        <v>14147.33</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
-        <v>81571.33</v>
+        <v>20554.330000000002</v>
       </c>
       <c r="E7" s="12">
         <v>15.67</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G7" s="12">
-        <v>31.67</v>
+        <v>25.67</v>
       </c>
       <c r="H7" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -14877,25 +14130,25 @@
         <v>280000</v>
       </c>
       <c r="B8" s="11">
-        <v>101923.33</v>
+        <v>54927</v>
       </c>
       <c r="C8" s="12">
-        <v>23513</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>120288.33</v>
+        <v>32226.33</v>
       </c>
       <c r="E8" s="12">
         <v>21</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G8" s="12">
-        <v>36.33</v>
+        <v>42</v>
       </c>
       <c r="H8" s="17">
-        <v>0</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -14904,25 +14157,25 @@
         <v>340000</v>
       </c>
       <c r="B9" s="11">
-        <v>150274</v>
+        <v>81727.33</v>
       </c>
       <c r="C9" s="12">
-        <v>34431.67</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>160780</v>
+        <v>48432.67</v>
       </c>
       <c r="E9" s="12">
-        <v>26.33</v>
+        <v>20.67</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G9" s="12">
-        <v>51.67</v>
+        <v>41.67</v>
       </c>
       <c r="H9" s="17">
-        <v>0</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14931,25 +14184,25 @@
         <v>400000</v>
       </c>
       <c r="B10" s="11">
-        <v>198567</v>
+        <v>110230.67</v>
       </c>
       <c r="C10" s="12">
-        <v>47452.33</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>204434</v>
+        <v>66423.33</v>
       </c>
       <c r="E10" s="12">
-        <v>25.67</v>
+        <v>36.33</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G10" s="12">
         <v>47</v>
       </c>
       <c r="H10" s="17">
-        <v>0</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14958,25 +14211,25 @@
         <v>460000</v>
       </c>
       <c r="B11" s="11">
-        <v>263865.33</v>
+        <v>144234.32999999999</v>
       </c>
       <c r="C11" s="12">
-        <v>63198.67</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>249000.67</v>
+        <v>88348.67</v>
       </c>
       <c r="E11" s="12">
-        <v>31.33</v>
+        <v>36.33</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G11" s="12">
-        <v>52.33</v>
+        <v>57.67</v>
       </c>
       <c r="H11" s="17">
-        <v>10.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14985,25 +14238,25 @@
         <v>520000</v>
       </c>
       <c r="B12" s="11">
-        <v>341493.33</v>
+        <v>184253.67</v>
       </c>
       <c r="C12" s="12">
-        <v>80550</v>
+        <v>10.33</v>
       </c>
       <c r="D12" s="12">
-        <v>295198</v>
+        <v>112455</v>
       </c>
       <c r="E12" s="12">
-        <v>31.33</v>
+        <v>41.67</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G12" s="12">
-        <v>57.33</v>
+        <v>67.33</v>
       </c>
       <c r="H12" s="17">
-        <v>10.33</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -15012,25 +14265,25 @@
         <v>580000</v>
       </c>
       <c r="B13" s="11">
-        <v>415190.33</v>
+        <v>231609</v>
       </c>
       <c r="C13" s="12">
-        <v>100838</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
-        <v>343810.33</v>
+        <v>140322.67000000001</v>
       </c>
       <c r="E13" s="12">
-        <v>47</v>
+        <v>46.67</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G13" s="12">
-        <v>72.67</v>
+        <v>78</v>
       </c>
       <c r="H13" s="17">
-        <v>5.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15039,25 +14292,25 @@
         <v>640000</v>
       </c>
       <c r="B14" s="11">
-        <v>502986.67</v>
+        <v>279567</v>
       </c>
       <c r="C14" s="12">
-        <v>122389</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12">
-        <v>395997</v>
+        <v>170804.67</v>
       </c>
       <c r="E14" s="12">
-        <v>41.67</v>
+        <v>52</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G14" s="12">
-        <v>83.33</v>
+        <v>78</v>
       </c>
       <c r="H14" s="17">
-        <v>5</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15066,25 +14319,25 @@
         <v>700000</v>
       </c>
       <c r="B15" s="13">
-        <v>604516</v>
+        <v>333419</v>
       </c>
       <c r="C15" s="18">
-        <v>147876.32999999999</v>
+        <v>5.33</v>
       </c>
       <c r="D15" s="18">
-        <v>449098</v>
+        <v>203917.67</v>
       </c>
       <c r="E15" s="18">
-        <v>47</v>
+        <v>57.33</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G15" s="18">
-        <v>88.67</v>
+        <v>93.67</v>
       </c>
       <c r="H15" s="19">
-        <v>5.33</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -15093,6 +14346,805 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>12277.33</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2844</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5594.33</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="12">
+        <v>10.33</v>
+      </c>
+      <c r="H5" s="17">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f>(A5+60000)</f>
+        <v>160000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>32576</v>
+      </c>
+      <c r="C6" s="12">
+        <v>7505.67</v>
+      </c>
+      <c r="D6" s="12">
+        <v>14574.33</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="12">
+        <v>25.67</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
+        <v>220000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>60585.33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>14142</v>
+      </c>
+      <c r="D7" s="12">
+        <v>27706</v>
+      </c>
+      <c r="E7" s="12">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="12">
+        <v>26.33</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>280000</v>
+      </c>
+      <c r="B8" s="11">
+        <v>96863</v>
+      </c>
+      <c r="C8" s="12">
+        <v>23476.33</v>
+      </c>
+      <c r="D8" s="12">
+        <v>44316.33</v>
+      </c>
+      <c r="E8" s="12">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="12">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>144229.67000000001</v>
+      </c>
+      <c r="C9" s="12">
+        <v>34310.67</v>
+      </c>
+      <c r="D9" s="12">
+        <v>64914.67</v>
+      </c>
+      <c r="E9" s="12">
+        <v>26</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12">
+        <v>41.33</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="B10" s="11">
+        <v>199129.33</v>
+      </c>
+      <c r="C10" s="12">
+        <v>47526.33</v>
+      </c>
+      <c r="D10" s="12">
+        <v>90814.67</v>
+      </c>
+      <c r="E10" s="12">
+        <v>15.67</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="12">
+        <v>46.67</v>
+      </c>
+      <c r="H10" s="17">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>460000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>262138.33</v>
+      </c>
+      <c r="C11" s="12">
+        <v>63283</v>
+      </c>
+      <c r="D11" s="12">
+        <v>120128.33</v>
+      </c>
+      <c r="E11" s="12">
+        <v>36.67</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="12">
+        <v>52</v>
+      </c>
+      <c r="H11" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>520000</v>
+      </c>
+      <c r="B12" s="11">
+        <v>338122</v>
+      </c>
+      <c r="C12" s="12">
+        <v>81138.67</v>
+      </c>
+      <c r="D12" s="12">
+        <v>152823</v>
+      </c>
+      <c r="E12" s="12">
+        <v>36.67</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="12">
+        <v>62</v>
+      </c>
+      <c r="H12" s="17">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>580000</v>
+      </c>
+      <c r="B13" s="11">
+        <v>419936.67</v>
+      </c>
+      <c r="C13" s="12">
+        <v>101760.33</v>
+      </c>
+      <c r="D13" s="12">
+        <v>188596.33</v>
+      </c>
+      <c r="E13" s="12">
+        <v>36.33</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="12">
+        <v>73</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>502973.67</v>
+      </c>
+      <c r="C14" s="12">
+        <v>123199.67</v>
+      </c>
+      <c r="D14" s="12">
+        <v>228362.67</v>
+      </c>
+      <c r="E14" s="12">
+        <v>41.67</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="12">
+        <v>78</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="B15" s="13">
+        <v>610071.67000000004</v>
+      </c>
+      <c r="C15" s="18">
+        <v>147108.67000000001</v>
+      </c>
+      <c r="D15" s="18">
+        <v>271704.67</v>
+      </c>
+      <c r="E15" s="18">
+        <v>46.67</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="18">
+        <v>88.67</v>
+      </c>
+      <c r="H15" s="19">
+        <v>5.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>12470.33</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2839</v>
+      </c>
+      <c r="D5" s="12">
+        <v>16679</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="12">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f>(A5+60000)</f>
+        <v>160000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>31029.67</v>
+      </c>
+      <c r="C6" s="12">
+        <v>7501</v>
+      </c>
+      <c r="D6" s="12">
+        <v>46230</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10.67</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="12">
+        <v>15.33</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" ref="A7:A15" si="0">(A6+60000)</f>
+        <v>220000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>60023.33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>14147.33</v>
+      </c>
+      <c r="D7" s="12">
+        <v>81571.33</v>
+      </c>
+      <c r="E7" s="12">
+        <v>15.67</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12">
+        <v>31.67</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>280000</v>
+      </c>
+      <c r="B8" s="11">
+        <v>101923.33</v>
+      </c>
+      <c r="C8" s="12">
+        <v>23513</v>
+      </c>
+      <c r="D8" s="12">
+        <v>120288.33</v>
+      </c>
+      <c r="E8" s="12">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="12">
+        <v>36.33</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>150274</v>
+      </c>
+      <c r="C9" s="12">
+        <v>34431.67</v>
+      </c>
+      <c r="D9" s="12">
+        <v>160780</v>
+      </c>
+      <c r="E9" s="12">
+        <v>26.33</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12">
+        <v>51.67</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="B10" s="11">
+        <v>198567</v>
+      </c>
+      <c r="C10" s="12">
+        <v>47452.33</v>
+      </c>
+      <c r="D10" s="12">
+        <v>204434</v>
+      </c>
+      <c r="E10" s="12">
+        <v>25.67</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="12">
+        <v>47</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>460000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>263865.33</v>
+      </c>
+      <c r="C11" s="12">
+        <v>63198.67</v>
+      </c>
+      <c r="D11" s="12">
+        <v>249000.67</v>
+      </c>
+      <c r="E11" s="12">
+        <v>31.33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="12">
+        <v>52.33</v>
+      </c>
+      <c r="H11" s="17">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>520000</v>
+      </c>
+      <c r="B12" s="11">
+        <v>341493.33</v>
+      </c>
+      <c r="C12" s="12">
+        <v>80550</v>
+      </c>
+      <c r="D12" s="12">
+        <v>295198</v>
+      </c>
+      <c r="E12" s="12">
+        <v>31.33</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="12">
+        <v>57.33</v>
+      </c>
+      <c r="H12" s="17">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>580000</v>
+      </c>
+      <c r="B13" s="11">
+        <v>415190.33</v>
+      </c>
+      <c r="C13" s="12">
+        <v>100838</v>
+      </c>
+      <c r="D13" s="12">
+        <v>343810.33</v>
+      </c>
+      <c r="E13" s="12">
+        <v>47</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="12">
+        <v>72.67</v>
+      </c>
+      <c r="H13" s="17">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>502986.67</v>
+      </c>
+      <c r="C14" s="12">
+        <v>122389</v>
+      </c>
+      <c r="D14" s="12">
+        <v>395997</v>
+      </c>
+      <c r="E14" s="12">
+        <v>41.67</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="12">
+        <v>83.33</v>
+      </c>
+      <c r="H14" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="B15" s="13">
+        <v>604516</v>
+      </c>
+      <c r="C15" s="18">
+        <v>147876.32999999999</v>
+      </c>
+      <c r="D15" s="18">
+        <v>449098</v>
+      </c>
+      <c r="E15" s="18">
+        <v>47</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="18">
+        <v>88.67</v>
+      </c>
+      <c r="H15" s="19">
+        <v>5.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
+++ b/AlgoritmosDeOrdenacao/Análise dos algoritmos.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="854"/>
   </bookViews>
   <sheets>
-    <sheet name="Aleatórios Distintos" sheetId="2" r:id="rId1"/>
-    <sheet name="Aleatórios Repetidos" sheetId="3" r:id="rId2"/>
-    <sheet name="Crescentes Distintos" sheetId="4" r:id="rId3"/>
-    <sheet name="Crescentes Repetidos" sheetId="5" r:id="rId4"/>
-    <sheet name="Decrescentes Distintos" sheetId="6" r:id="rId5"/>
-    <sheet name="Decrescentes Repetidos" sheetId="7" r:id="rId6"/>
+    <sheet name="Apresentação" sheetId="11" r:id="rId1"/>
+    <sheet name="Testes" sheetId="10" r:id="rId2"/>
+    <sheet name="Aleatórios Distintos" sheetId="2" r:id="rId3"/>
+    <sheet name="Aleatórios Repetidos" sheetId="3" r:id="rId4"/>
+    <sheet name="Crescentes Distintos" sheetId="4" r:id="rId5"/>
+    <sheet name="Crescentes Repetidos" sheetId="5" r:id="rId6"/>
+    <sheet name="Decrescentes Distintos" sheetId="6" r:id="rId7"/>
+    <sheet name="Decrescentes Repetidos" sheetId="7" r:id="rId8"/>
+    <sheet name="Conclusão" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>Aleatório Distintos</t>
   </si>
@@ -249,6 +252,40 @@
   <si>
     <t>Crescentes Repetidos</t>
   </si>
+  <si>
+    <t>Conclusão</t>
+  </si>
+  <si>
+    <t>Qual é o melhor algoritmo quando os elementos estão ordenados de forma crescente?
+R.: Insertion Sort, complexidade no pior caso O(n²). Conforme os testes foi ordenado em poucos millisegundos a maior quantidade de elementos, 700.000 números inteiros distintos ou repetidos. Isso ocorre pois o Insertion Sort, no melhor caso que é quando os elementos estão ordenados de forma crescente, passa a ter complexidade O(n) e com isso, o tempo de execução é muito pequeno.
+Qual é o melhor algoritmo quando os elementos estão ordenados de forma decrescente?
+R.: Counting Sort, complexidade O(n). Esse algoritmo se mostrou o mais eficiente em ordenar o conjunto de dados testados, números inteiros distintos ou repetidos. Sua complexidade é O(n) no melhor e no pior caso e por ser linear o tempo de execução é menor que os demais métodos de ordenação.
+Qual é o algoritmo mais estável em relação ao tempo de processamento? Ou seja, qual o que menos varia o tempo de processamento independente da forma como os dados estão organizados no vetor?
+R.: O Counting Sort se mostrou bem estável independente da forma como os dados estão organizados e também foi o que executou em menor tempo. Vale lembrar que mesmo usando a lógica diferente do Counting Sort, os algoritmos Heap Sort O(n log n) e o Merge Sort O(n log n) também se mostraram estáveis, porém com o tempo de execução superior ao Counting Sort O(n).</t>
+  </si>
+  <si>
+    <t>Análise de teste dos algoritmos de ordenação</t>
+  </si>
+  <si>
+    <t>Foi desenvolvido um sistema para ordenação de números. Esse sistema foi implementado na linguagem de programação Java com diversos algoritmos de ordenação conforme apresentados em sala de aula.
+Esse documento registra os testes efetuados e como é o comportamento dos algoritmos de ordenação em diferentes cenários.
+Será apresentando abaixo a extração das médias do tempo de execução de cada algoritmo implementado com o respectivo conjunto de dados. Em outras palavras, será exibido em tabelas e gráficos qual foi a média de tempo de execução de cada algoritmo para ordenar os conjuntos de dados a partir de 100.000 até 700.000 números inteiros.
+Os algoritmos implementados foram: Bubble Sort, Insertion Sort, Selection Sort, Merge Sort, Quick Sort, Heap Sort e Counting Sort. Os conjuntos de dados foram: 100.000, 160.000, 220.000, 280.000, 340.000, 400.000, 460.000, 520.000, 640.000 e 700.000 números inteiros, sendo esses conjuntos de números aleatório e repetido.</t>
+  </si>
+  <si>
+    <t>CENTRO UNIVERSITÁRIO CATÓLICO DE VITÓRIA</t>
+  </si>
+  <si>
+    <t>Mateus Garcia Lopes
+Vitor Knupp Costa</t>
+  </si>
+  <si>
+    <t>Análise e Projeto de Algoritmos</t>
+  </si>
+  <si>
+    <t>Vitória - ES
+2017</t>
+  </si>
 </sst>
 </file>
 
@@ -437,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -523,6 +560,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,6 +641,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1628,6 +1685,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1700,6 +1758,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1778,6 +1837,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1850,6 +1910,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1890,6 +1951,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2077,13 +2139,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>[0]!Dados</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -4745,6 +4800,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4784,7 +4840,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>CountingSort</c:v>
+            <c:v>BubbleSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4812,7 +4868,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$H$4:$H$15</c:f>
+              <c:f>'Crescentes Repetidos'!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4820,37 +4876,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.33</c:v>
+                  <c:v>6943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18293.669999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>33925.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.33</c:v>
+                  <c:v>54927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.33</c:v>
+                  <c:v>81727.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.33</c:v>
+                  <c:v>110230.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>144234.32999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33</c:v>
+                  <c:v>184253.67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>231609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.33</c:v>
+                  <c:v>279567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>333419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4903,7 +4959,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000000-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4911,7 +4967,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>HeapSort</c:v>
+            <c:v>InsertionSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4939,7 +4995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$G$4:$G$15</c:f>
+              <c:f>'Crescentes Repetidos'!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4947,37 +5003,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10.33</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.33</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.67</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,7 +5086,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000001-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5038,7 +5094,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>QuickSort</c:v>
+            <c:v>SelectionSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5065,48 +5121,49 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>'Crescentes Repetidos'!$F$4:$F$15</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Crescentes Repetidos'!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.67</c:v>
+                  <c:v>4114.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>10589.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.33</c:v>
+                  <c:v>20554.330000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
+                  <c:v>32226.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.33</c:v>
+                  <c:v>48432.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.67</c:v>
+                  <c:v>66423.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.67</c:v>
+                  <c:v>88348.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.0</c:v>
+                  <c:v>112455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.33</c:v>
+                  <c:v>140322.67000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.33</c:v>
+                  <c:v>170804.67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>203917.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -5156,7 +5213,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000002-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5164,7 +5221,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>MergSort</c:v>
+            <c:v>MergeSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5283,7 +5340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000003-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5291,7 +5348,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>SelectionSort</c:v>
+            <c:v>QuickSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5318,49 +5375,48 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Crescentes Repetidos'!$D$4:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'Crescentes Repetidos'!$F$4:$F$15</c:f>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4114.33</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10589.67</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20554.330000000002</c:v>
+                  <c:v>18.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32226.33</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48432.67</c:v>
+                  <c:v>23.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66423.33</c:v>
+                  <c:v>25.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88348.67</c:v>
+                  <c:v>32.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112455</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140322.67000000001</c:v>
+                  <c:v>41.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>170804.67</c:v>
+                  <c:v>41.33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203917.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -5410,7 +5466,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000004-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5418,7 +5474,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>InsertionSort</c:v>
+            <c:v>HeapSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5446,7 +5502,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$C$4:$C$15</c:f>
+              <c:f>'Crescentes Repetidos'!$G$4:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5454,37 +5510,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.33</c:v>
+                  <c:v>10.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>41.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>57.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.33</c:v>
+                  <c:v>67.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.33</c:v>
+                  <c:v>93.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5537,7 +5593,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000005-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5545,7 +5601,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>BubbleSort</c:v>
+            <c:v>CountingSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5579,7 +5635,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Crescentes Repetidos'!$B$4:$B$15</c:f>
+              <c:f>'Crescentes Repetidos'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5587,37 +5643,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6943</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18293.669999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33925.33</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54927</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81727.33</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110230.67</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144234.32999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184253.67</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>231609</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>279567</c:v>
+                  <c:v>5.33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>333419</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5670,7 +5726,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-808A-4E07-82A1-94389C17CC79}"/>
+              <c16:uniqueId val="{00000006-9FD5-4A18-98B5-7A003923B69C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5732,6 +5788,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5804,6 +5861,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5882,6 +5940,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5954,6 +6013,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5994,6 +6054,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6105,6 +6166,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7092,6 +7154,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7164,6 +7227,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7242,6 +7306,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7314,6 +7379,7 @@
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
+            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7354,6 +7420,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8776,7 +8843,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -12122,15 +12189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12157,15 +12224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12193,14 +12260,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12231,13 +12298,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12267,14 +12334,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12303,15 +12370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12598,14 +12665,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A48:J49"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A10:J11"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:J34"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -12638,7 +13316,9 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -13124,26 +13804,30 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13170,7 +13854,9 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -13520,22 +14206,28 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13562,7 +14254,9 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
@@ -13912,22 +14606,28 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14306,21 +15006,28 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14699,21 +15406,31 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15092,7 +15809,552 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:J35"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>